--- a/Examples/AHP_Ratings_Lunch/LunchModel_Ratings_Table_empty.xlsx
+++ b/Examples/AHP_Ratings_Lunch/LunchModel_Ratings_Table_empty.xlsx
@@ -135,7 +135,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -157,6 +157,7 @@
     <xf numFmtId="0" fontId="3" fillId="12" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="4" fillId="10" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="5" fillId="11" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -827,10 +828,10 @@
         <v>1</v>
       </c>
       <c r="C12" s="8" t="n">
-        <v>0.9807692307692307</v>
+        <v>0.5</v>
       </c>
       <c r="D12" s="8" t="n">
-        <v>0.9622641509433962</v>
+        <v>1</v>
       </c>
       <c r="E12" s="9" t="n"/>
       <c r="F12" s="10">
@@ -860,7 +861,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="8" t="n">
-        <v>0.9811320754716981</v>
+        <v>2</v>
       </c>
       <c r="E13" s="9" t="n"/>
       <c r="F13" s="10">
@@ -1441,111 +1442,141 @@
     </row>
     <row r="8"/>
     <row r="9">
-      <c r="B9" s="15" t="inlineStr">
+      <c r="B9" s="21" t="n">
+        <v>0.2609430406361969</v>
+      </c>
+      <c r="C9" s="21" t="n">
+        <v>0.1189592698979585</v>
+      </c>
+      <c r="D9" s="21" t="n">
+        <v>0.1689279835267223</v>
+      </c>
+      <c r="E9" s="21" t="n">
+        <v>0.4511697059391224</v>
+      </c>
+      <c r="F9" s="18" t="inlineStr">
+        <is>
+          <t>TOTALS</t>
+        </is>
+      </c>
+      <c r="G9" s="18" t="inlineStr">
+        <is>
+          <t>PRIORITIES</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" s="21" t="inlineStr">
         <is>
           <t>1Quality</t>
         </is>
       </c>
-      <c r="C9" s="15" t="inlineStr">
+      <c r="C10" s="21" t="inlineStr">
         <is>
           <t>2Price</t>
         </is>
       </c>
-      <c r="D9" s="15" t="inlineStr">
+      <c r="D10" s="21" t="inlineStr">
         <is>
           <t>3Menu</t>
         </is>
       </c>
-      <c r="E9" s="15" t="inlineStr">
+      <c r="E10" s="21" t="inlineStr">
         <is>
           <t>4Speed</t>
         </is>
       </c>
-      <c r="F9" s="18" t="inlineStr">
-        <is>
-          <t>TOTALS</t>
-        </is>
-      </c>
-      <c r="G9" s="18" t="inlineStr">
-        <is>
-          <t>PRIORITIES</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="B10" s="8" t="n">
-        <v>0.2609430406361969</v>
-      </c>
-      <c r="C10" s="8" t="n">
-        <v>0.1189592698979585</v>
-      </c>
-      <c r="D10" s="8" t="n">
-        <v>0.1689279835267223</v>
-      </c>
-      <c r="E10" s="8" t="n">
-        <v>0.4511697059391224</v>
-      </c>
-    </row>
-    <row r="11"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="15" t="inlineStr">
+        <is>
+          <t>1Panera</t>
+        </is>
+      </c>
+      <c r="B11" s="8">
+        <f>INDEX(rating_scales!I3:I6, MATCH(B2,rating_scales!A3:A6, 0))</f>
+        <v/>
+      </c>
+      <c r="C11" s="8">
+        <f>INDEX(rating_scales!H12:H14, MATCH(C2,rating_scales!A12:A14, 0))</f>
+        <v/>
+      </c>
+      <c r="D11" s="8">
+        <f>INDEX(rating_scales!I20:I23, MATCH(D2,rating_scales!A20:A23, 0))</f>
+        <v/>
+      </c>
+      <c r="E11" s="8">
+        <f>INDEX(rating_scales!H29:H31, MATCH(E2,rating_scales!A29:A31, 0))</f>
+        <v/>
+      </c>
+      <c r="F11" s="19">
+        <f>sumproduct(B11:E11,B9:E9)</f>
+        <v/>
+      </c>
+      <c r="G11" s="20">
+        <f>F11/sum(F11:F13)</f>
+        <v/>
+      </c>
+    </row>
     <row r="12">
       <c r="A12" s="15" t="inlineStr">
         <is>
-          <t>1Panera</t>
+          <t>2Primanti</t>
         </is>
       </c>
       <c r="B12" s="8">
-        <f>INDEX(rating_scales!I3:I6, MATCH(B2,rating_scales!A3:A6, 0))</f>
+        <f>INDEX(rating_scales!I3:I6, MATCH(B3,rating_scales!A3:A6, 0))</f>
         <v/>
       </c>
       <c r="C12" s="8">
-        <f>INDEX(rating_scales!H12:H14, MATCH(C2,rating_scales!A12:A14, 0))</f>
+        <f>INDEX(rating_scales!H12:H14, MATCH(C3,rating_scales!A12:A14, 0))</f>
         <v/>
       </c>
       <c r="D12" s="8">
-        <f>INDEX(rating_scales!I20:I23, MATCH(D2,rating_scales!A20:A23, 0))</f>
+        <f>INDEX(rating_scales!I20:I23, MATCH(D3,rating_scales!A20:A23, 0))</f>
         <v/>
       </c>
       <c r="E12" s="8">
-        <f>INDEX(rating_scales!H29:H31, MATCH(E2,rating_scales!A29:A31, 0))</f>
+        <f>INDEX(rating_scales!H29:H31, MATCH(E3,rating_scales!A29:A31, 0))</f>
         <v/>
       </c>
       <c r="F12" s="19">
-        <f>sumproduct(B12:E12,B10:E10)</f>
+        <f>sumproduct(B12:E12,B9:E9)</f>
         <v/>
       </c>
       <c r="G12" s="20">
-        <f>F12/sum(F12:F14)</f>
+        <f>F12/sum(F11:F13)</f>
         <v/>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="15" t="inlineStr">
         <is>
-          <t>2Primanti</t>
+          <t>3Subway</t>
         </is>
       </c>
       <c r="B13" s="8">
-        <f>INDEX(rating_scales!I3:I6, MATCH(B3,rating_scales!A3:A6, 0))</f>
+        <f>INDEX(rating_scales!I3:I6, MATCH(B4,rating_scales!A3:A6, 0))</f>
         <v/>
       </c>
       <c r="C13" s="8">
-        <f>INDEX(rating_scales!H12:H14, MATCH(C3,rating_scales!A12:A14, 0))</f>
+        <f>INDEX(rating_scales!H12:H14, MATCH(C4,rating_scales!A12:A14, 0))</f>
         <v/>
       </c>
       <c r="D13" s="8">
-        <f>INDEX(rating_scales!I20:I23, MATCH(D3,rating_scales!A20:A23, 0))</f>
+        <f>INDEX(rating_scales!I20:I23, MATCH(D4,rating_scales!A20:A23, 0))</f>
         <v/>
       </c>
       <c r="E13" s="8">
-        <f>INDEX(rating_scales!H29:H31, MATCH(E3,rating_scales!A29:A31, 0))</f>
+        <f>INDEX(rating_scales!H29:H31, MATCH(E4,rating_scales!A29:A31, 0))</f>
         <v/>
       </c>
       <c r="F13" s="19">
-        <f>sumproduct(B13:E13,B10:E10)</f>
+        <f>sumproduct(B13:E13,B9:E9)</f>
         <v/>
       </c>
       <c r="G13" s="20">
-        <f>F13/sum(F12:F14)</f>
+        <f>F13/sum(F11:F13)</f>
         <v/>
       </c>
     </row>
@@ -1581,7 +1612,79 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="72">
+  <dataValidations count="96">
+    <dataValidation sqref="B2" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A3:A6</formula1>
+    </dataValidation>
+    <dataValidation sqref="B3" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A3:A6</formula1>
+    </dataValidation>
+    <dataValidation sqref="B4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A3:A6</formula1>
+    </dataValidation>
+    <dataValidation sqref="C2" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A12:A14</formula1>
+    </dataValidation>
+    <dataValidation sqref="C3" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A12:A14</formula1>
+    </dataValidation>
+    <dataValidation sqref="C4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A12:A14</formula1>
+    </dataValidation>
+    <dataValidation sqref="D2" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A20:A23</formula1>
+    </dataValidation>
+    <dataValidation sqref="D3" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A20:A23</formula1>
+    </dataValidation>
+    <dataValidation sqref="D4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A20:A23</formula1>
+    </dataValidation>
+    <dataValidation sqref="E2" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A29:A31</formula1>
+    </dataValidation>
+    <dataValidation sqref="E3" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A29:A31</formula1>
+    </dataValidation>
+    <dataValidation sqref="E4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A29:A31</formula1>
+    </dataValidation>
+    <dataValidation sqref="B2" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A3:A6</formula1>
+    </dataValidation>
+    <dataValidation sqref="B3" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A3:A6</formula1>
+    </dataValidation>
+    <dataValidation sqref="B4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A3:A6</formula1>
+    </dataValidation>
+    <dataValidation sqref="C2" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A12:A14</formula1>
+    </dataValidation>
+    <dataValidation sqref="C3" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A12:A14</formula1>
+    </dataValidation>
+    <dataValidation sqref="C4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A12:A14</formula1>
+    </dataValidation>
+    <dataValidation sqref="D2" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A20:A23</formula1>
+    </dataValidation>
+    <dataValidation sqref="D3" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A20:A23</formula1>
+    </dataValidation>
+    <dataValidation sqref="D4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A20:A23</formula1>
+    </dataValidation>
+    <dataValidation sqref="E2" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A29:A31</formula1>
+    </dataValidation>
+    <dataValidation sqref="E3" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A29:A31</formula1>
+    </dataValidation>
+    <dataValidation sqref="E4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A29:A31</formula1>
+    </dataValidation>
     <dataValidation sqref="B2" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
       <formula1>=rating_scales!A3:A6</formula1>
     </dataValidation>

--- a/Examples/AHP_Ratings_Lunch/LunchModel_Ratings_Table_empty.xlsx
+++ b/Examples/AHP_Ratings_Lunch/LunchModel_Ratings_Table_empty.xlsx
@@ -46,7 +46,7 @@
       <color rgb="ff000000"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="12">
     <fill>
       <patternFill/>
     </fill>
@@ -97,11 +97,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="ffcde4f7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="ffffffcc"/>
       </patternFill>
     </fill>
@@ -135,7 +130,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -154,10 +149,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="5" fillId="11" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="10" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -1353,7 +1347,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1442,16 +1436,16 @@
     </row>
     <row r="8"/>
     <row r="9">
-      <c r="B9" s="21" t="n">
+      <c r="B9" s="8" t="n">
         <v>0.2609430406361969</v>
       </c>
-      <c r="C9" s="21" t="n">
+      <c r="C9" s="8" t="n">
         <v>0.1189592698979585</v>
       </c>
-      <c r="D9" s="21" t="n">
+      <c r="D9" s="8" t="n">
         <v>0.1689279835267223</v>
       </c>
-      <c r="E9" s="21" t="n">
+      <c r="E9" s="8" t="n">
         <v>0.4511697059391224</v>
       </c>
       <c r="F9" s="18" t="inlineStr">
@@ -1466,22 +1460,22 @@
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="21" t="inlineStr">
+      <c r="B10" s="15" t="inlineStr">
         <is>
           <t>1Quality</t>
         </is>
       </c>
-      <c r="C10" s="21" t="inlineStr">
+      <c r="C10" s="15" t="inlineStr">
         <is>
           <t>2Price</t>
         </is>
       </c>
-      <c r="D10" s="21" t="inlineStr">
+      <c r="D10" s="15" t="inlineStr">
         <is>
           <t>3Menu</t>
         </is>
       </c>
-      <c r="E10" s="21" t="inlineStr">
+      <c r="E10" s="15" t="inlineStr">
         <is>
           <t>4Speed</t>
         </is>
@@ -1580,255 +1574,8 @@
         <v/>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="15" t="inlineStr">
-        <is>
-          <t>3Subway</t>
-        </is>
-      </c>
-      <c r="B14" s="8">
-        <f>INDEX(rating_scales!I3:I6, MATCH(B4,rating_scales!A3:A6, 0))</f>
-        <v/>
-      </c>
-      <c r="C14" s="8">
-        <f>INDEX(rating_scales!H12:H14, MATCH(C4,rating_scales!A12:A14, 0))</f>
-        <v/>
-      </c>
-      <c r="D14" s="8">
-        <f>INDEX(rating_scales!I20:I23, MATCH(D4,rating_scales!A20:A23, 0))</f>
-        <v/>
-      </c>
-      <c r="E14" s="8">
-        <f>INDEX(rating_scales!H29:H31, MATCH(E4,rating_scales!A29:A31, 0))</f>
-        <v/>
-      </c>
-      <c r="F14" s="19">
-        <f>sumproduct(B14:E14,B10:E10)</f>
-        <v/>
-      </c>
-      <c r="G14" s="20">
-        <f>F14/sum(F12:F14)</f>
-        <v/>
-      </c>
-    </row>
   </sheetData>
-  <dataValidations count="96">
-    <dataValidation sqref="B2" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A3:A6</formula1>
-    </dataValidation>
-    <dataValidation sqref="B3" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A3:A6</formula1>
-    </dataValidation>
-    <dataValidation sqref="B4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A3:A6</formula1>
-    </dataValidation>
-    <dataValidation sqref="C2" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A12:A14</formula1>
-    </dataValidation>
-    <dataValidation sqref="C3" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A12:A14</formula1>
-    </dataValidation>
-    <dataValidation sqref="C4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A12:A14</formula1>
-    </dataValidation>
-    <dataValidation sqref="D2" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A20:A23</formula1>
-    </dataValidation>
-    <dataValidation sqref="D3" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A20:A23</formula1>
-    </dataValidation>
-    <dataValidation sqref="D4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A20:A23</formula1>
-    </dataValidation>
-    <dataValidation sqref="E2" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A29:A31</formula1>
-    </dataValidation>
-    <dataValidation sqref="E3" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A29:A31</formula1>
-    </dataValidation>
-    <dataValidation sqref="E4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A29:A31</formula1>
-    </dataValidation>
-    <dataValidation sqref="B2" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A3:A6</formula1>
-    </dataValidation>
-    <dataValidation sqref="B3" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A3:A6</formula1>
-    </dataValidation>
-    <dataValidation sqref="B4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A3:A6</formula1>
-    </dataValidation>
-    <dataValidation sqref="C2" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A12:A14</formula1>
-    </dataValidation>
-    <dataValidation sqref="C3" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A12:A14</formula1>
-    </dataValidation>
-    <dataValidation sqref="C4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A12:A14</formula1>
-    </dataValidation>
-    <dataValidation sqref="D2" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A20:A23</formula1>
-    </dataValidation>
-    <dataValidation sqref="D3" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A20:A23</formula1>
-    </dataValidation>
-    <dataValidation sqref="D4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A20:A23</formula1>
-    </dataValidation>
-    <dataValidation sqref="E2" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A29:A31</formula1>
-    </dataValidation>
-    <dataValidation sqref="E3" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A29:A31</formula1>
-    </dataValidation>
-    <dataValidation sqref="E4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A29:A31</formula1>
-    </dataValidation>
-    <dataValidation sqref="B2" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A3:A6</formula1>
-    </dataValidation>
-    <dataValidation sqref="B3" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A3:A6</formula1>
-    </dataValidation>
-    <dataValidation sqref="B4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A3:A6</formula1>
-    </dataValidation>
-    <dataValidation sqref="C2" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A12:A14</formula1>
-    </dataValidation>
-    <dataValidation sqref="C3" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A12:A14</formula1>
-    </dataValidation>
-    <dataValidation sqref="C4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A12:A14</formula1>
-    </dataValidation>
-    <dataValidation sqref="D2" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A20:A23</formula1>
-    </dataValidation>
-    <dataValidation sqref="D3" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A20:A23</formula1>
-    </dataValidation>
-    <dataValidation sqref="D4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A20:A23</formula1>
-    </dataValidation>
-    <dataValidation sqref="E2" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A29:A31</formula1>
-    </dataValidation>
-    <dataValidation sqref="E3" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A29:A31</formula1>
-    </dataValidation>
-    <dataValidation sqref="E4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A29:A31</formula1>
-    </dataValidation>
-    <dataValidation sqref="B2" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A3:A6</formula1>
-    </dataValidation>
-    <dataValidation sqref="B3" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A3:A6</formula1>
-    </dataValidation>
-    <dataValidation sqref="B4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A3:A6</formula1>
-    </dataValidation>
-    <dataValidation sqref="C2" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A12:A14</formula1>
-    </dataValidation>
-    <dataValidation sqref="C3" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A12:A14</formula1>
-    </dataValidation>
-    <dataValidation sqref="C4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A12:A14</formula1>
-    </dataValidation>
-    <dataValidation sqref="D2" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A20:A23</formula1>
-    </dataValidation>
-    <dataValidation sqref="D3" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A20:A23</formula1>
-    </dataValidation>
-    <dataValidation sqref="D4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A20:A23</formula1>
-    </dataValidation>
-    <dataValidation sqref="E2" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A29:A31</formula1>
-    </dataValidation>
-    <dataValidation sqref="E3" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A29:A31</formula1>
-    </dataValidation>
-    <dataValidation sqref="E4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A29:A31</formula1>
-    </dataValidation>
-    <dataValidation sqref="B2" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A3:A6</formula1>
-    </dataValidation>
-    <dataValidation sqref="B3" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A3:A6</formula1>
-    </dataValidation>
-    <dataValidation sqref="B4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A3:A6</formula1>
-    </dataValidation>
-    <dataValidation sqref="C2" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A12:A14</formula1>
-    </dataValidation>
-    <dataValidation sqref="C3" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A12:A14</formula1>
-    </dataValidation>
-    <dataValidation sqref="C4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A12:A14</formula1>
-    </dataValidation>
-    <dataValidation sqref="D2" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A20:A23</formula1>
-    </dataValidation>
-    <dataValidation sqref="D3" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A20:A23</formula1>
-    </dataValidation>
-    <dataValidation sqref="D4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A20:A23</formula1>
-    </dataValidation>
-    <dataValidation sqref="E2" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A29:A31</formula1>
-    </dataValidation>
-    <dataValidation sqref="E3" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A29:A31</formula1>
-    </dataValidation>
-    <dataValidation sqref="E4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A29:A31</formula1>
-    </dataValidation>
-    <dataValidation sqref="B2" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A3:A6</formula1>
-    </dataValidation>
-    <dataValidation sqref="B3" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A3:A6</formula1>
-    </dataValidation>
-    <dataValidation sqref="B4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A3:A6</formula1>
-    </dataValidation>
-    <dataValidation sqref="C2" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A12:A14</formula1>
-    </dataValidation>
-    <dataValidation sqref="C3" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A12:A14</formula1>
-    </dataValidation>
-    <dataValidation sqref="C4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A12:A14</formula1>
-    </dataValidation>
-    <dataValidation sqref="D2" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A20:A23</formula1>
-    </dataValidation>
-    <dataValidation sqref="D3" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A20:A23</formula1>
-    </dataValidation>
-    <dataValidation sqref="D4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A20:A23</formula1>
-    </dataValidation>
-    <dataValidation sqref="E2" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A29:A31</formula1>
-    </dataValidation>
-    <dataValidation sqref="E3" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A29:A31</formula1>
-    </dataValidation>
-    <dataValidation sqref="E4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>=rating_scales!A29:A31</formula1>
-    </dataValidation>
+  <dataValidations count="24">
     <dataValidation sqref="B2" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
       <formula1>=rating_scales!A3:A6</formula1>
     </dataValidation>

--- a/Examples/AHP_Ratings_Lunch/LunchModel_Ratings_Table_empty.xlsx
+++ b/Examples/AHP_Ratings_Lunch/LunchModel_Ratings_Table_empty.xlsx
@@ -822,10 +822,10 @@
         <v>1</v>
       </c>
       <c r="C12" s="8" t="n">
-        <v>0.5</v>
+        <v>0.9807692307692307</v>
       </c>
       <c r="D12" s="8" t="n">
-        <v>1</v>
+        <v>0.9622641509433962</v>
       </c>
       <c r="E12" s="9" t="n"/>
       <c r="F12" s="10">
@@ -855,7 +855,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="8" t="n">
-        <v>2</v>
+        <v>0.9811320754716981</v>
       </c>
       <c r="E13" s="9" t="n"/>
       <c r="F13" s="10">
@@ -1424,7 +1424,7 @@
     <row r="7">
       <c r="A7" s="17" t="inlineStr">
         <is>
-          <t>ESTIMATED RESULTS</t>
+          <t>ESTIMATED TOTALS AND PRIORITIES</t>
         </is>
       </c>
       <c r="B7" s="17" t="inlineStr"/>
@@ -1575,7 +1575,79 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="24">
+  <dataValidations count="48">
+    <dataValidation sqref="B2" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A3:A6</formula1>
+    </dataValidation>
+    <dataValidation sqref="B3" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A3:A6</formula1>
+    </dataValidation>
+    <dataValidation sqref="B4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A3:A6</formula1>
+    </dataValidation>
+    <dataValidation sqref="C2" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A12:A14</formula1>
+    </dataValidation>
+    <dataValidation sqref="C3" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A12:A14</formula1>
+    </dataValidation>
+    <dataValidation sqref="C4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A12:A14</formula1>
+    </dataValidation>
+    <dataValidation sqref="D2" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A20:A23</formula1>
+    </dataValidation>
+    <dataValidation sqref="D3" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A20:A23</formula1>
+    </dataValidation>
+    <dataValidation sqref="D4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A20:A23</formula1>
+    </dataValidation>
+    <dataValidation sqref="E2" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A29:A31</formula1>
+    </dataValidation>
+    <dataValidation sqref="E3" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A29:A31</formula1>
+    </dataValidation>
+    <dataValidation sqref="E4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A29:A31</formula1>
+    </dataValidation>
+    <dataValidation sqref="B2" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A3:A6</formula1>
+    </dataValidation>
+    <dataValidation sqref="B3" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A3:A6</formula1>
+    </dataValidation>
+    <dataValidation sqref="B4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A3:A6</formula1>
+    </dataValidation>
+    <dataValidation sqref="C2" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A12:A14</formula1>
+    </dataValidation>
+    <dataValidation sqref="C3" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A12:A14</formula1>
+    </dataValidation>
+    <dataValidation sqref="C4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A12:A14</formula1>
+    </dataValidation>
+    <dataValidation sqref="D2" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A20:A23</formula1>
+    </dataValidation>
+    <dataValidation sqref="D3" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A20:A23</formula1>
+    </dataValidation>
+    <dataValidation sqref="D4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A20:A23</formula1>
+    </dataValidation>
+    <dataValidation sqref="E2" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A29:A31</formula1>
+    </dataValidation>
+    <dataValidation sqref="E3" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A29:A31</formula1>
+    </dataValidation>
+    <dataValidation sqref="E4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>=rating_scales!A29:A31</formula1>
+    </dataValidation>
     <dataValidation sqref="B2" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
       <formula1>=rating_scales!A3:A6</formula1>
     </dataValidation>
